--- a/Synthèse-Experiences/Hole_Size_Dose.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dose.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="34">
   <si>
     <t>backside</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>ApproxGauss-Autopower</t>
   </si>
+  <si>
+    <t>20μm – 6.5pA (7)</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +221,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +273,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -356,11 +397,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBBBBAD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBBBBAD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBBBBAD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBBBBAD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,12 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,16 +457,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,8 +476,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +524,40 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -471,15 +569,127 @@
         <left style="thin">
           <color theme="0"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
         <top style="thin">
           <color theme="0"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -523,74 +733,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -619,436 +761,6 @@
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1127,6 +839,42 @@
         <top style="thin">
           <color theme="0"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
@@ -1165,14 +913,12 @@
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1181,20 +927,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1204,8 +952,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1231,6 +977,43 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -1244,8 +1027,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1271,7 +1052,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
         </left>
@@ -1281,11 +1062,7 @@
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1358,7 +1135,9 @@
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -1385,35 +1164,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1447,6 +1204,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -1487,6 +1280,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -1527,6 +1356,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -1567,6 +1432,42 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
@@ -1607,6 +1508,112 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1631,22 +1638,80 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1721,22 +1786,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,13 +1819,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.44927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,22 +1856,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,19 +1883,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.28446771378708546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.30948678071539665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.23006134969325151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.30315500685871055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,22 +1917,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,19 +1944,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28446771378708546</c:v>
+                  <c:v>0.24510932105868818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23006134969325151</c:v>
+                  <c:v>0.153558052434457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2474048442906574</c:v>
+                  <c:v>0.11898734177215196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20205920205920208</c:v>
+                  <c:v>0.1484272216242076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1484272216242076</c:v>
+                  <c:v>0.1001206272617612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,22 +1978,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,19 +2005,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.14052287581699341</c:v>
+                  <c:v>0.11594202898550721</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12696148359486448</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11898734177215196</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1001206272617612</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,26 +2032,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173587072"/>
-        <c:axId val="173585536"/>
+        <c:axId val="185105792"/>
+        <c:axId val="185107584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173587072"/>
+        <c:axId val="185105792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173585536"/>
+        <c:crossAx val="185107584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173585536"/>
+        <c:axId val="185107584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173587072"/>
+        <c:crossAx val="185105792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2081,22 +2146,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,13 +2179,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,22 +2216,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,19 +2243,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.55706521739130443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.52731591448931114</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.62593516209476308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.53473684210526318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,22 +2277,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,19 +2304,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.55706521739130443</c:v>
+                  <c:v>0.60628465804066534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62593516209476308</c:v>
+                  <c:v>0.73376623376623373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60332871012482669</c:v>
+                  <c:v>0.78733031674208132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66381156316916479</c:v>
+                  <c:v>0.74151218496146643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74151218496146643</c:v>
+                  <c:v>0.81798245614035081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,22 +2338,22 @@
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,19 +2365,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.75358166189111753</c:v>
+                  <c:v>0.79220779220779225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77468354430379749</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78733031674208132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81798245614035081</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,27 +2392,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211982592"/>
-        <c:axId val="211980288"/>
+        <c:axId val="203697536"/>
+        <c:axId val="203711616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211982592"/>
+        <c:axId val="203697536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211980288"/>
+        <c:crossAx val="203711616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211980288"/>
+        <c:axId val="203711616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211982592"/>
+        <c:crossAx val="203697536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2501,33 +2566,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O51" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
-  <autoFilter ref="A2:O51"/>
-  <sortState ref="A3:O51">
-    <sortCondition ref="A2:A51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O54" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A2:O54"/>
+  <sortState ref="A3:O54">
+    <sortCondition ref="K2:K54"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Exp" dataDxfId="31" totalsRowDxfId="2"/>
-    <tableColumn id="19" name="Thickness" dataDxfId="20" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Image Type" dataDxfId="30" totalsRowDxfId="4"/>
-    <tableColumn id="5" name="Measure with*" dataDxfId="29" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="dose on design" dataDxfId="28" totalsRowDxfId="6"/>
-    <tableColumn id="15" name="Design Dose factor" dataDxfId="23" totalsRowDxfId="7"/>
-    <tableColumn id="17" name="Dot Dose pC" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="18" name="Loop" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="16" name="Final dose" dataDxfId="1" totalsRowDxfId="10">
+    <tableColumn id="1" name="Exp" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="19" name="Thickness" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Image Type" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="5" name="Measure with*" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="6" name="dose on design" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="15" name="Design Dose factor" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="17" name="Dot Dose pC" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="18" name="Loop" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="16" name="Final dose" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Frontside" dataDxfId="19" totalsRowDxfId="11"/>
-    <tableColumn id="8" name="Backside" dataDxfId="18" totalsRowDxfId="12"/>
-    <tableColumn id="11" name="Ecart relatif" dataDxfId="17" totalsRowDxfId="13">
+    <tableColumn id="7" name="Frontside" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Backside" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="11" name="Ecart relatif" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hole Ratio" dataDxfId="0" totalsRowDxfId="14">
+    <tableColumn id="12" name="Hole Ratio" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column" dataDxfId="27" totalsRowDxfId="15"/>
-    <tableColumn id="14" name="Current pA" dataDxfId="26" totalsRowDxfId="16"/>
+    <tableColumn id="13" name="Column" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="14" name="Current pA" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2826,7 +2891,7 @@
       <selection activeCell="A30" sqref="A30:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -2837,13 +2902,13 @@
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G1" s="7" t="s">
+    <row r="1" spans="1:16" ht="15.6">
+      <c r="G1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2940,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.2" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -2905,7 +2970,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -2935,7 +3000,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -2965,7 +3030,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="1">
         <v>31</v>
       </c>
@@ -2995,7 +3060,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="1">
         <v>31</v>
       </c>
@@ -3025,7 +3090,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -3044,8 +3109,8 @@
       <c r="F8" s="2">
         <v>1.2</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -3055,7 +3120,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -3074,8 +3139,8 @@
       <c r="F9" s="2">
         <v>1.4</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -3085,7 +3150,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -3104,8 +3169,8 @@
       <c r="F10" s="2">
         <v>1.6</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>20</v>
       </c>
       <c r="I10" s="2"/>
@@ -3115,7 +3180,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -3134,8 +3199,8 @@
       <c r="F11" s="2">
         <v>1.8</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>19</v>
       </c>
       <c r="I11" s="2"/>
@@ -3145,7 +3210,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -3164,8 +3229,8 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -3175,15 +3240,15 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3191,7 +3256,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="1">
         <v>31</v>
       </c>
@@ -3224,7 +3289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -3260,7 +3325,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -3296,7 +3361,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -3324,7 +3389,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -3360,7 +3425,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -3396,7 +3461,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -3432,7 +3497,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -3468,7 +3533,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="1">
         <v>34</v>
       </c>
@@ -3504,7 +3569,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="3">
         <v>34</v>
       </c>
@@ -3540,7 +3605,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.6">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -3576,7 +3641,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.6">
       <c r="A29" s="1">
         <v>31</v>
       </c>
@@ -3606,7 +3671,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3642,7 +3707,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.6">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3678,7 +3743,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.6">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3706,7 +3771,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.6">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3742,7 +3807,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3778,7 +3843,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3814,7 +3879,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3850,7 +3915,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.6">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3886,7 +3951,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.6">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -3933,16 +3998,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
@@ -3962,16 +4027,16 @@
     <col min="16" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J1" s="7" t="s">
+    <row r="1" spans="1:16" ht="15.6">
+      <c r="J1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -4005,7 +4070,7 @@
       <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="22" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -4018,7 +4083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.2" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -4026,13 +4091,13 @@
         <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F3" s="2">
         <v>20</v>
@@ -4043,372 +4108,382 @@
       <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.8</v>
+      </c>
+      <c r="J3" s="8">
+        <v>17</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="8">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.6">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10">
-        <v>31</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="J5" s="8">
+        <v>21</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>-1</v>
-      </c>
-      <c r="M3" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O5" s="11">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="6" spans="1:16" ht="15.6">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="8">
+        <v>20</v>
+      </c>
+      <c r="I6" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>26</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="M6" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.6">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E7" s="2">
         <v>1.4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="8">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="I7" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10">
-        <v>50</v>
-      </c>
-      <c r="L4" s="22">
+      <c r="J7" s="8">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>-1</v>
-      </c>
-      <c r="M4" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="O7" s="15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6">
+      <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
         <v>105</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E8" s="2">
         <v>1.6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="I8" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10">
-        <v>51</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="J8" s="8">
+        <v>43</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>-1</v>
-      </c>
-      <c r="M5" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="O8" s="15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6">
+      <c r="A9" s="1">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E9" s="2">
         <v>1.8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="I9" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
-        <v>52.3</v>
-      </c>
-      <c r="L6" s="22">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>-1</v>
-      </c>
-      <c r="M6" s="2" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H7" s="2">
-        <v>10</v>
-      </c>
-      <c r="I7" s="18">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10">
-        <v>66</v>
-      </c>
-      <c r="L7" s="22">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>-1</v>
-      </c>
-      <c r="M7" s="2" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10</v>
-      </c>
-      <c r="I8" s="18">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4</v>
-      </c>
-      <c r="J8" s="10">
-        <v>21</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="J9" s="8">
+        <v>45</v>
+      </c>
+      <c r="K9" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L9" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M9" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>0</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="O9" s="15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.6">
+      <c r="A10" s="1">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
         <v>105</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="I10" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8</v>
-      </c>
-      <c r="J9" s="10">
-        <v>17</v>
-      </c>
-      <c r="K9" s="11">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8">
+        <v>54</v>
+      </c>
+      <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L10" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>1</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>0</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="18">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.2</v>
-      </c>
-      <c r="J10" s="10">
-        <v>40</v>
-      </c>
-      <c r="K10" s="11">
-        <v>20</v>
-      </c>
-      <c r="L10" s="22">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M10" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.5</v>
-      </c>
       <c r="N10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="13">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O10" s="15">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -4433,17 +4508,17 @@
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>50</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>19</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>0.44927536231884058</v>
       </c>
@@ -4454,11 +4529,11 @@
       <c r="N11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -4472,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F12" s="2">
         <v>20</v>
@@ -4483,34 +4558,34 @@
       <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>4</v>
-      </c>
-      <c r="J12" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9">
         <v>20</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
+      <c r="L12" s="17">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="2">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>105</v>
@@ -4524,1361 +4599,1353 @@
       <c r="E13" s="4">
         <v>1.2</v>
       </c>
-      <c r="F13" s="10">
-        <v>10</v>
+      <c r="F13" s="8">
+        <v>6.6666699999999999</v>
       </c>
       <c r="G13" s="2">
         <v>0.01</v>
       </c>
-      <c r="H13" s="10">
-        <v>20</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="H13" s="8">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4000011999999997</v>
+      </c>
+      <c r="J13" s="12">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K13" s="12">
+        <v>20.5</v>
+      </c>
+      <c r="L13" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.28446771378708546</v>
+      </c>
+      <c r="M13" s="12">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.55706521739130443</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.6">
+      <c r="A14" s="3">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="12">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4000011999999997</v>
+      </c>
+      <c r="J14" s="12">
+        <v>42.1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="L14" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.30948678071539665</v>
+      </c>
+      <c r="M14" s="12">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.52731591448931114</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.6">
+      <c r="A15" s="3">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="12">
+        <v>30</v>
+      </c>
+      <c r="I15" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4000011999999997</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
+        <v>23.1</v>
+      </c>
+      <c r="L15" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="12" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.6">
+      <c r="A16" s="3">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="12">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="12">
+        <v>30</v>
+      </c>
+      <c r="I16" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.8000013999999993</v>
+      </c>
+      <c r="J16" s="12">
+        <v>40.1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>25.1</v>
+      </c>
+      <c r="L16" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.23006134969325151</v>
+      </c>
+      <c r="M16" s="12">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.62593516209476308</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="1">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="12">
+        <v>30</v>
+      </c>
+      <c r="I17" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.8000013999999993</v>
+      </c>
+      <c r="J17" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="L17" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.30315500685871055</v>
+      </c>
+      <c r="M17" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.53473684210526318</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.6">
+      <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>105</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F18" s="12">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="12">
+        <v>30</v>
+      </c>
+      <c r="I18" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.2000015999999998</v>
+      </c>
+      <c r="J18" s="8">
+        <v>43.26</v>
+      </c>
+      <c r="K18" s="8">
+        <v>26.1</v>
+      </c>
+      <c r="L18" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.2474048442906574</v>
+      </c>
+      <c r="M18" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.60332871012482669</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6">
+      <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="8">
+        <v>50</v>
+      </c>
+      <c r="I19" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
-      <c r="J13" s="14">
-        <v>26</v>
-      </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
+      <c r="J19" s="8">
+        <v>34.9</v>
+      </c>
+      <c r="K19" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="L19" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="14">
+        <v>0.14052287581699341</v>
+      </c>
+      <c r="M19" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="s">
+        <v>0.75358166189111753</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O13" s="17">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="O19" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="8">
+        <v>50</v>
+      </c>
+      <c r="I20" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="J20" s="8">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K20" s="8">
+        <v>26.4</v>
+      </c>
+      <c r="L20" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.20720720720720728</v>
+      </c>
+      <c r="M20" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.65671641791044766</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6">
+      <c r="A21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>105</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1">
+      <c r="E21" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="8">
+        <v>30</v>
+      </c>
+      <c r="I21" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.8000013999999993</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
+        <v>26.7</v>
+      </c>
+      <c r="L21" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M21" s="8" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6">
+      <c r="A22" s="1">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
         <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F22" s="8">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="8">
+        <v>30</v>
+      </c>
+      <c r="I22" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.2000015999999998</v>
+      </c>
+      <c r="J22" s="8">
+        <v>50.9</v>
+      </c>
+      <c r="K22" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="L22" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.2772898368883312</v>
+      </c>
+      <c r="M22" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.56581532416502955</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6">
+      <c r="A23" s="1">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E23" s="4">
         <v>1.4</v>
       </c>
-      <c r="F14" s="14">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F23" s="8">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
         <v>0.01</v>
       </c>
-      <c r="H14" s="14">
-        <v>20</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="H23" s="8">
+        <v>50</v>
+      </c>
+      <c r="I23" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J23" s="8">
+        <v>39.5</v>
+      </c>
+      <c r="K23" s="8">
+        <v>30.6</v>
+      </c>
+      <c r="L23" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.12696148359486448</v>
+      </c>
+      <c r="M23" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.77468354430379749</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6">
+      <c r="A24" s="1">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="8">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="8">
         <v>30</v>
       </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="I24" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.6000017999999994</v>
+      </c>
+      <c r="J24" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="K24" s="8">
+        <v>31</v>
+      </c>
+      <c r="L24" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.20205920205920208</v>
+      </c>
+      <c r="M24" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.66381156316916479</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.6">
+      <c r="A25" s="3">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="14">
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10</v>
+      </c>
+      <c r="I25" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12">
+        <v>31</v>
+      </c>
+      <c r="L25" s="18">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M25" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="15">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="O25" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.6">
+      <c r="A26" s="3">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
         <v>105</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="8">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="8">
+        <v>30</v>
+      </c>
+      <c r="I26" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.6000017999999994</v>
+      </c>
+      <c r="J26" s="12">
+        <v>54.1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L26" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.24510932105868818</v>
+      </c>
+      <c r="M26" s="12">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.60628465804066534</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.6">
+      <c r="A27" s="3">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>105</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H27" s="8">
+        <v>50</v>
+      </c>
+      <c r="I27" s="19">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>2.8</v>
+      </c>
+      <c r="J27" s="12">
+        <v>46.2</v>
+      </c>
+      <c r="K27" s="12">
+        <v>33.9</v>
+      </c>
+      <c r="L27" s="19">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.153558052434457</v>
+      </c>
+      <c r="M27" s="12">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.73376623376623373</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.6">
+      <c r="A28" s="3">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E28" s="4">
         <v>1.6</v>
       </c>
-      <c r="F15" s="14">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F28" s="8">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
         <v>0.01</v>
       </c>
-      <c r="H15" s="14">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H28" s="8">
+        <v>50</v>
+      </c>
+      <c r="I28" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
-      <c r="J15" s="14">
-        <v>43</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
+      <c r="J28" s="12">
+        <v>44.2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L28" s="18">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="14">
+        <v>0.11898734177215196</v>
+      </c>
+      <c r="M28" s="4">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="s">
+        <v>0.78733031674208132</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="15">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="O28" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.6">
+      <c r="A29" s="1">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
         <v>105</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="8">
+        <v>30</v>
+      </c>
+      <c r="I29" s="20">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>4.0000019999999994</v>
+      </c>
+      <c r="J29" s="8">
+        <v>48.01</v>
+      </c>
+      <c r="K29" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="L29" s="20">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.1484272216242076</v>
+      </c>
+      <c r="M29" s="8">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.74151218496146643</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.6">
+      <c r="A30" s="1">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
+        <v>105</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
         <v>1.8</v>
       </c>
-      <c r="F16" s="14">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
         <v>0.01</v>
       </c>
-      <c r="H16" s="14">
-        <v>20</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="H30" s="8">
+        <v>50</v>
+      </c>
+      <c r="I30" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
-      <c r="J16" s="14">
-        <v>45</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
+      <c r="J30" s="8">
+        <v>45.6</v>
+      </c>
+      <c r="K30" s="8">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L30" s="17">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="14">
+        <v>0.1001206272617612</v>
+      </c>
+      <c r="M30" s="2">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="s">
+        <v>0.81798245614035081</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="15">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="O30" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.6">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1">
         <v>105</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H31" s="8">
+        <v>50</v>
+      </c>
+      <c r="I31" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="J31" s="8">
+        <v>51.2</v>
+      </c>
+      <c r="K31" s="8">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L31" s="17">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.15706214689265544</v>
+      </c>
+      <c r="M31" s="2">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.72851562499999989</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.6">
+      <c r="A32" s="1">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>105</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="14">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F32" s="8">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
         <v>0.01</v>
       </c>
-      <c r="H17" s="14">
-        <v>20</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H32" s="8">
+        <v>50</v>
+      </c>
+      <c r="I32" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J32" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="K32" s="8">
+        <v>39</v>
+      </c>
+      <c r="L32" s="17">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M32" s="2">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.6">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>105</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="8">
+        <v>50</v>
+      </c>
+      <c r="I33" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>3.6</v>
+      </c>
+      <c r="J33" s="8">
         <v>54</v>
       </c>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
+      <c r="K33" s="8">
+        <v>40</v>
+      </c>
+      <c r="L33" s="17">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="M33" s="2">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="s">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="15">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="O33" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B34" s="1">
         <v>105</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8">
         <v>6.6666699999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G34" s="2">
         <v>0.01</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H34" s="8">
         <v>30</v>
       </c>
-      <c r="I18" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4000011999999997</v>
-      </c>
-      <c r="J18" s="10">
-        <v>42.1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>22.2</v>
-      </c>
-      <c r="L18" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.30948678071539665</v>
-      </c>
-      <c r="M18" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.52731591448931114</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>105</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F19" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H19" s="10">
-        <v>30</v>
-      </c>
-      <c r="I19" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8000013999999993</v>
-      </c>
-      <c r="J19" s="10">
-        <v>47.5</v>
-      </c>
-      <c r="K19" s="10">
-        <v>25.4</v>
-      </c>
-      <c r="L19" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.30315500685871055</v>
-      </c>
-      <c r="M19" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.53473684210526318</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1">
-        <v>105</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F20" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H20" s="10">
-        <v>30</v>
-      </c>
-      <c r="I20" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.2000015999999998</v>
-      </c>
-      <c r="J20" s="10">
-        <v>50.9</v>
-      </c>
-      <c r="K20" s="10">
-        <v>28.8</v>
-      </c>
-      <c r="L20" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.2772898368883312</v>
-      </c>
-      <c r="M20" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.56581532416502955</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <v>105</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F21" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="10">
-        <v>30</v>
-      </c>
-      <c r="I21" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.6000017999999994</v>
-      </c>
-      <c r="J21" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="L21" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.24510932105868818</v>
-      </c>
-      <c r="M21" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.60628465804066534</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1">
-        <v>105</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H22" s="10">
-        <v>30</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="I34" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J34" s="8">
         <v>54.8</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K34" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L34" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>0.15247108307045215</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M34" s="8">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>0.73540145985401462</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O34" s="15">
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="35" spans="1:23" ht="15.6">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B35" s="1">
         <v>105</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8">
         <v>6.6666699999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G35" s="2">
         <v>0.01</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H35" s="8">
         <v>30</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I35" s="20">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4000011999999997</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10">
-        <v>23.1</v>
-      </c>
-      <c r="L23" s="25">
+        <v>4.0000019999999994</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
+        <v>42</v>
+      </c>
+      <c r="L35" s="20">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>-1</v>
       </c>
-      <c r="M23" s="10" t="e">
+      <c r="M35" s="8" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O35" s="15">
         <v>0.45800000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="Q35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+    </row>
+    <row r="36" spans="1:23" ht="15.6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
         <v>105</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="8">
+        <v>50</v>
+      </c>
+      <c r="I36" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>4</v>
+      </c>
+      <c r="J36" s="8">
+        <v>53.9</v>
+      </c>
+      <c r="K36" s="8">
+        <v>42.7</v>
+      </c>
+      <c r="L36" s="17">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>0.11594202898550721</v>
+      </c>
+      <c r="M36" s="2">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>0.79220779220779225</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.6">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1">
+        <v>105</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
         <v>1.4</v>
       </c>
-      <c r="F24" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F37" s="2">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2">
         <v>0.01</v>
       </c>
-      <c r="H24" s="10">
-        <v>30</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="H37" s="2">
+        <v>10</v>
+      </c>
+      <c r="I37" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8000013999999993</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
-        <v>26.7</v>
-      </c>
-      <c r="L24" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
+        <v>50</v>
+      </c>
+      <c r="L37" s="18">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>-1</v>
       </c>
-      <c r="M24" s="10" t="e">
+      <c r="M37" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="O37" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.6">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1">
         <v>105</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F38" s="2">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2">
         <v>0.01</v>
       </c>
-      <c r="H25" s="10">
-        <v>30</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="H38" s="2">
+        <v>10</v>
+      </c>
+      <c r="I38" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>4.0000019999999994</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
-        <v>42</v>
-      </c>
-      <c r="L25" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
+        <v>51</v>
+      </c>
+      <c r="L38" s="18">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
         <v>-1</v>
       </c>
-      <c r="M25" s="14" t="e">
+      <c r="M38" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="O38" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.6">
+      <c r="A39" s="3">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1">
         <v>105</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="E39" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2">
         <v>0.01</v>
       </c>
-      <c r="H26" s="10">
-        <v>30</v>
-      </c>
-      <c r="I26" s="20">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4000011999999997</v>
-      </c>
-      <c r="J26" s="14">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="K26" s="14">
-        <v>20.5</v>
-      </c>
-      <c r="L26" s="24">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.28446771378708546</v>
-      </c>
-      <c r="M26" s="14">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.55706521739130443</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1">
-        <v>105</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F27" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H27" s="10">
-        <v>30</v>
-      </c>
-      <c r="I27" s="20">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8000013999999993</v>
-      </c>
-      <c r="J27" s="14">
-        <v>40.1</v>
-      </c>
-      <c r="K27" s="14">
-        <v>25.1</v>
-      </c>
-      <c r="L27" s="24">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.23006134969325151</v>
-      </c>
-      <c r="M27" s="14">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.62593516209476308</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1">
-        <v>105</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F28" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H28" s="10">
-        <v>30</v>
-      </c>
-      <c r="I28" s="20">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.2000015999999998</v>
-      </c>
-      <c r="J28" s="14">
-        <v>43.26</v>
-      </c>
-      <c r="K28" s="14">
-        <v>26.1</v>
-      </c>
-      <c r="L28" s="24">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.2474048442906574</v>
-      </c>
-      <c r="M28" s="14">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.60332871012482669</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1">
-        <v>105</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F29" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H29" s="10">
-        <v>30</v>
-      </c>
-      <c r="I29" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.6000017999999994</v>
-      </c>
-      <c r="J29" s="10">
-        <v>46.7</v>
-      </c>
-      <c r="K29" s="10">
-        <v>31</v>
-      </c>
-      <c r="L29" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.20205920205920208</v>
-      </c>
-      <c r="M29" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.66381156316916479</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
-        <v>105</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10">
-        <v>6.6666699999999999</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H30" s="10">
-        <v>30</v>
-      </c>
-      <c r="I30" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>4.0000019999999994</v>
-      </c>
-      <c r="J30" s="10">
-        <v>48.01</v>
-      </c>
-      <c r="K30" s="10">
-        <v>35.6</v>
-      </c>
-      <c r="L30" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.1484272216242076</v>
-      </c>
-      <c r="M30" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.74151218496146643</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="17">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
-        <v>105</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F31" s="10">
-        <v>4</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="10">
-        <v>50</v>
-      </c>
-      <c r="I31" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4</v>
-      </c>
-      <c r="J31" s="10">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="K31" s="10">
-        <v>26.4</v>
-      </c>
-      <c r="L31" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.20720720720720728</v>
-      </c>
-      <c r="M31" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.65671641791044766</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1">
-        <v>105</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F32" s="10">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H32" s="10">
-        <v>50</v>
-      </c>
-      <c r="I32" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8</v>
-      </c>
-      <c r="J32" s="10">
-        <v>46.2</v>
-      </c>
-      <c r="K32" s="10">
-        <v>33.9</v>
-      </c>
-      <c r="L32" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.153558052434457</v>
-      </c>
-      <c r="M32" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.73376623376623373</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1">
-        <v>105</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F33" s="10">
-        <v>4</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H33" s="10">
-        <v>50</v>
-      </c>
-      <c r="I33" s="18">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.2</v>
-      </c>
-      <c r="J33" s="10">
-        <v>51.2</v>
-      </c>
-      <c r="K33" s="10">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="L33" s="22">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.15706214689265544</v>
-      </c>
-      <c r="M33" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.72851562499999989</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1">
-        <v>105</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F34" s="10">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H34" s="10">
-        <v>50</v>
-      </c>
-      <c r="I34" s="18">
+      <c r="H39" s="2">
+        <v>10</v>
+      </c>
+      <c r="I39" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
-      <c r="J34" s="10">
-        <v>54</v>
-      </c>
-      <c r="K34" s="10">
-        <v>40</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
+        <v>52.3</v>
+      </c>
+      <c r="L39" s="18">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="M34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>105</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" s="10">
-        <v>4</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H35" s="10">
-        <v>50</v>
-      </c>
-      <c r="I35" s="18">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>4</v>
-      </c>
-      <c r="J35" s="10">
-        <v>53.9</v>
-      </c>
-      <c r="K35" s="10">
-        <v>42.7</v>
-      </c>
-      <c r="L35" s="22">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.11594202898550721</v>
-      </c>
-      <c r="M35" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.79220779220779225</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="Q35" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>105</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F36" s="10">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H36" s="10">
-        <v>50</v>
-      </c>
-      <c r="I36" s="21">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.4</v>
-      </c>
-      <c r="J36" s="10">
-        <v>34.9</v>
-      </c>
-      <c r="K36" s="10">
-        <v>26.3</v>
-      </c>
-      <c r="L36" s="25">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.14052287581699341</v>
-      </c>
-      <c r="M36" s="10">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.75358166189111753</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>105</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F37" s="10">
-        <v>4</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H37" s="10">
-        <v>50</v>
-      </c>
-      <c r="I37" s="20">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>2.8</v>
-      </c>
-      <c r="J37" s="14">
-        <v>39.5</v>
-      </c>
-      <c r="K37" s="14">
-        <v>30.6</v>
-      </c>
-      <c r="L37" s="24">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.12696148359486448</v>
-      </c>
-      <c r="M37" s="14">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.77468354430379749</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1">
-        <v>105</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="F38" s="10">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H38" s="10">
-        <v>50</v>
-      </c>
-      <c r="I38" s="19">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.2</v>
-      </c>
-      <c r="J38" s="14">
-        <v>44.2</v>
-      </c>
-      <c r="K38" s="14">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="L38" s="23">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.11898734177215196</v>
-      </c>
-      <c r="M38" s="4">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.78733031674208132</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="1">
-        <v>105</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F39" s="10">
-        <v>4</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H39" s="10">
-        <v>50</v>
-      </c>
-      <c r="I39" s="19">
-        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>3.6</v>
-      </c>
-      <c r="J39" s="14">
-        <v>45.6</v>
-      </c>
-      <c r="K39" s="14">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="L39" s="23">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>0.1001206272617612</v>
-      </c>
-      <c r="M39" s="4">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.81798245614035081</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O39" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.6">
       <c r="A40" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -5886,226 +5953,616 @@
       <c r="E40" s="4">
         <v>2</v>
       </c>
-      <c r="F40" s="10">
-        <v>4</v>
+      <c r="F40" s="2">
+        <v>20</v>
       </c>
       <c r="G40" s="2">
         <v>0.01</v>
       </c>
-      <c r="H40" s="10">
-        <v>50</v>
-      </c>
-      <c r="I40" s="19">
+      <c r="H40" s="2">
+        <v>10</v>
+      </c>
+      <c r="I40" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
-      <c r="J40" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="K40" s="14">
-        <v>39</v>
-      </c>
-      <c r="L40" s="23">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
+        <v>66</v>
+      </c>
+      <c r="L40" s="18">
         <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="M40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="4" t="e">
         <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>0.8571428571428571</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="17">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="4"/>
+      <c r="O40" s="11">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.6">
+      <c r="A41" s="1">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="4"/>
+      <c r="E41" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="12">
+        <v>20</v>
+      </c>
+      <c r="I41" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="J41" s="8" t="e">
+        <f>AVERAGE(n)/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M41" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N41" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="13">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="R41" s="30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.6">
+      <c r="A42" s="1">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1">
+        <v>35</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="17"/>
-    </row>
-    <row r="43" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="4"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="12">
+        <v>20</v>
+      </c>
+      <c r="I42" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="R42" s="30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.6">
+      <c r="A43" s="1">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1">
+        <v>35</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="4"/>
+      <c r="E43" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H43" s="12">
+        <v>20</v>
+      </c>
+      <c r="I43" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="R43" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.6">
+      <c r="A44" s="1">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="4"/>
+      <c r="E44" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="12">
+        <v>20</v>
+      </c>
+      <c r="I44" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="15">
+        <v>6.24</v>
+      </c>
+      <c r="R44" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.6">
+      <c r="A45" s="1">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="12">
+        <v>20</v>
+      </c>
+      <c r="I45" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="15">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.6">
+      <c r="A46" s="1">
+        <v>77</v>
+      </c>
+      <c r="B46" s="1">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="17"/>
-    </row>
-    <row r="47" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="4"/>
+      <c r="E46" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H46" s="12">
+        <v>20</v>
+      </c>
+      <c r="I46" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="15">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.6">
+      <c r="A47" s="1">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="17"/>
-    </row>
-    <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="4"/>
+      <c r="E47" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2</v>
+      </c>
+      <c r="I47" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="15">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.6">
+      <c r="A48" s="1">
+        <v>78</v>
+      </c>
+      <c r="B48" s="1">
+        <v>35</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="4"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2</v>
+      </c>
+      <c r="I48" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="15">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.6">
+      <c r="A49" s="1">
+        <v>78</v>
+      </c>
+      <c r="B49" s="1">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="17"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="4"/>
+      <c r="E49" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2</v>
+      </c>
+      <c r="I49" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="15">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.6">
+      <c r="A50" s="3">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="17"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="4"/>
+      <c r="E50" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H50" s="8">
+        <v>200</v>
+      </c>
+      <c r="I50" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.36</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="15">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.6">
+      <c r="A51" s="3">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1">
+        <v>35</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="17"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="8">
+        <v>200</v>
+      </c>
+      <c r="I51" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="15">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.6">
+      <c r="A52" s="26">
+        <v>79</v>
+      </c>
+      <c r="B52" s="26">
+        <v>35</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H52" s="27">
+        <v>200</v>
+      </c>
+      <c r="I52" s="18">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.84</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="18" t="e">
+        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="29">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6113,9 +6570,10 @@
     <mergeCell ref="Q35:W35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6126,7 +6584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Synthèse-Experiences/Hole_Size_Dose.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dose.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="61">
   <si>
     <t>backside</t>
   </si>
@@ -161,14 +162,106 @@
   <si>
     <t>20μm – 6.5pA (7)</t>
   </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>Frontside - direct</t>
+  </si>
+  <si>
+    <t>Backside - transmission</t>
+  </si>
+  <si>
+    <t>79i</t>
+  </si>
+  <si>
+    <t>ApproxgaussAUto</t>
+  </si>
+  <si>
+    <t>mag 15000</t>
+  </si>
+  <si>
+    <t>5kV</t>
+  </si>
+  <si>
+    <t>Xplus8</t>
+  </si>
+  <si>
+    <t>Yrad3</t>
+  </si>
+  <si>
+    <t>REPEATABILITY?</t>
+  </si>
+  <si>
+    <t>variance:</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>79i - holesize (nm)</t>
+  </si>
+  <si>
+    <t>MEASURE WITH:</t>
+  </si>
+  <si>
+    <t>Approxgaussauto has good repeatability:</t>
+  </si>
+  <si>
+    <t>xplus</t>
+  </si>
+  <si>
+    <t>exp79i_1</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mean Hole size </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nm</t>
+    </r>
+  </si>
+  <si>
+    <t>Relative Difference</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Final Dose</t>
+  </si>
+  <si>
+    <t>Back?</t>
+  </si>
+  <si>
+    <t>Front?</t>
+  </si>
+  <si>
+    <t>pente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -254,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +372,20 @@
         <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -412,11 +517,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,9 +577,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +593,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,62 +617,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="38">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -569,7 +673,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -639,13 +745,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -708,6 +846,82 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1027,82 +1241,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1785,49 +1923,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$8:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44927536231884058</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1855,49 +1955,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$13:$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.28446771378708546</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30948678071539665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23006134969325151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30315500685871055</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1916,49 +1978,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$26:$L$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.24510932105868818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.153558052434457</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11898734177215196</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1484272216242076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1001206272617612</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -1977,49 +2001,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$L$36:$L$40</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.11594202898550721</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2032,11 +2018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185105792"/>
-        <c:axId val="185107584"/>
+        <c:axId val="176909696"/>
+        <c:axId val="176915584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185105792"/>
+        <c:axId val="176909696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,12 +2032,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185107584"/>
+        <c:crossAx val="176915584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185107584"/>
+        <c:axId val="176915584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185105792"/>
+        <c:crossAx val="176909696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2145,49 +2131,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$8:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2215,49 +2163,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$13:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.55706521739130443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52731591448931114</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62593516209476308</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.53473684210526318</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2276,49 +2186,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Feuil2!$M$26:$M$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.60628465804066534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73376623376623373</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78733031674208132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74151218496146643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81798245614035081</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2337,47 +2209,298 @@
           <c:xVal>
             <c:numRef>
               <c:f>Feuil2!$I$8:$I$12</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$M$36:$M$40</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="195571072"/>
+        <c:axId val="195585152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="195571072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="195585152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="195585152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="195571072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>77</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12408180227471566"/>
+                  <c:y val="0.25427055993000874"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$B$61:$B$64</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.2</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil2!$M$36:$M$40</c:f>
+              <c:f>Feuil2!$F$61:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1572519083969466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2781954887218046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>78</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0362642169728783E-2"/>
+                  <c:y val="-8.02030475357247E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$B$61:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.79220779220779225</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$F$65:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95218427323272425</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                <c:pt idx="1">
+                  <c:v>1.0819395643007728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1356367789834381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>79</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="21000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5136701662292215E-2"/>
+                  <c:y val="0.16565398075240595"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$B$61:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$F$69:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0341670753637404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0507712082262213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,38 +2515,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203697536"/>
-        <c:axId val="203711616"/>
+        <c:axId val="195514752"/>
+        <c:axId val="195344640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203697536"/>
+        <c:axId val="195514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Total dose (pC)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203711616"/>
+        <c:crossAx val="195344640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203711616"/>
+        <c:axId val="195344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Hole ratio</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203697536"/>
+        <c:crossAx val="195514752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2446,6 +2613,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2560320" y="11104244"/>
+          <a:ext cx="2110740" cy="1583055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2517,8 +2744,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>337677</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2562,39 +2789,172 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>726141</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>681318</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>735103</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>53333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6589056" y="3809999"/>
+          <a:ext cx="4491319" cy="2679993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O54" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A2:O54"/>
-  <sortState ref="A3:O54">
-    <sortCondition ref="K2:K54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A2:O56" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A2:O56">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ApproxGauss-Auto"/>
+        <filter val="ApproxGauss-Autopower"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A41:O56">
+    <sortCondition ref="A2:A56"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Exp" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="19" name="Thickness" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="Image Type" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" name="Measure with*" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="6" name="dose on design" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="15" name="Design Dose factor" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="17" name="Dot Dose pC" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="18" name="Loop" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="16" name="Final dose" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="1" name="Exp" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="19" name="Thickness" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" name="Image Type" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" name="Measure with*" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="dose on design" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="15" name="Design Dose factor" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="17" name="Dot Dose pC" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="18" name="Loop" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="16" name="Final dose" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Frontside" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Backside" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" name="Ecart relatif" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</calculatedColumnFormula>
+    <tableColumn id="7" name="Frontside - direct" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" name="Backside - transmission" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="11" name="Ecart relatif" dataDxfId="12" totalsRowDxfId="11">
+      <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hole Ratio" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</calculatedColumnFormula>
+    <tableColumn id="12" name="Hole Ratio" dataDxfId="10" totalsRowDxfId="9">
+      <calculatedColumnFormula>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="14" name="Current pA" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="13" name="Column" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="14" name="Current pA" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A60:G72" totalsRowShown="0">
+  <autoFilter ref="A60:G72">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A61:G72">
+    <sortCondition ref="A60:A72"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Exp "/>
+    <tableColumn id="16" name="Final Dose"/>
+    <tableColumn id="2" name="Back?" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(J42:J43)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Front?"/>
+    <tableColumn id="4" name="Relative Difference" dataDxfId="1">
+      <calculatedColumnFormula>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Ratio" dataDxfId="0">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Current"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2885,28 +3245,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:N38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -3987,52 +4349,380 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="33">
+        <v>1</v>
+      </c>
+      <c r="K48" s="33">
+        <v>2</v>
+      </c>
+      <c r="L48" s="33">
+        <v>3</v>
+      </c>
+      <c r="M48" s="33">
+        <v>4</v>
+      </c>
+      <c r="N48" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="34">
+        <v>5</v>
+      </c>
+      <c r="I49" s="33">
+        <v>1</v>
+      </c>
+      <c r="J49" s="32">
+        <v>63.29</v>
+      </c>
+      <c r="K49" s="32">
+        <v>62.47</v>
+      </c>
+      <c r="L49" s="32">
+        <v>61.03</v>
+      </c>
+      <c r="M49" s="32">
+        <v>57.9</v>
+      </c>
+      <c r="N49" s="32">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="34">
+        <v>8</v>
+      </c>
+      <c r="I50" s="33">
+        <v>1</v>
+      </c>
+      <c r="J50" s="32">
+        <v>62.81</v>
+      </c>
+      <c r="K50" s="32">
+        <v>62.68</v>
+      </c>
+      <c r="L50" s="32">
+        <v>61.03</v>
+      </c>
+      <c r="M50" s="32">
+        <v>58.21</v>
+      </c>
+      <c r="N50" s="37">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="H51" s="34">
+        <v>12</v>
+      </c>
+      <c r="I51" s="33">
+        <v>1</v>
+      </c>
+      <c r="J51" s="32">
+        <v>62.65</v>
+      </c>
+      <c r="K51" s="32">
+        <v>62.77</v>
+      </c>
+      <c r="L51" s="32">
+        <v>61.32</v>
+      </c>
+      <c r="M51" s="32">
+        <v>58.52</v>
+      </c>
+      <c r="N51" s="32">
+        <v>57.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="33">
+        <v>1</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2</v>
+      </c>
+      <c r="D52" s="33">
+        <v>3</v>
+      </c>
+      <c r="E52" s="33">
+        <v>4</v>
+      </c>
+      <c r="F52" s="33">
+        <v>5</v>
+      </c>
+      <c r="H52" s="34">
+        <v>20</v>
+      </c>
+      <c r="I52" s="33">
+        <v>1</v>
+      </c>
+      <c r="J52" s="32">
+        <v>63.19</v>
+      </c>
+      <c r="K52" s="32">
+        <v>63.3</v>
+      </c>
+      <c r="L52" s="32">
+        <v>61.96</v>
+      </c>
+      <c r="M52" s="32">
+        <v>59.5</v>
+      </c>
+      <c r="N52" s="32">
+        <v>58.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="33">
+        <v>1</v>
+      </c>
+      <c r="B53" s="32">
+        <v>62.8</v>
+      </c>
+      <c r="C53" s="32">
+        <v>62.7</v>
+      </c>
+      <c r="D53" s="32">
+        <v>61</v>
+      </c>
+      <c r="E53" s="32">
+        <v>58.2</v>
+      </c>
+      <c r="F53" s="32">
+        <v>56.2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="36">
+        <f>VAR(J49:J52)</f>
+        <v>9.2633333333332901E-2</v>
+      </c>
+      <c r="K53" s="36">
+        <f t="shared" ref="K53:N53" si="0">VAR(K49:K52)</f>
+        <v>0.12469999999999927</v>
+      </c>
+      <c r="L53" s="36">
+        <f t="shared" si="0"/>
+        <v>0.19229999999999992</v>
+      </c>
+      <c r="M53" s="36">
+        <f t="shared" si="0"/>
+        <v>0.48009166666666703</v>
+      </c>
+      <c r="N53" s="38">
+        <f t="shared" si="0"/>
+        <v>4.9698250000000082</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="33">
+        <v>2</v>
+      </c>
+      <c r="B54" s="32">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C54" s="32">
+        <v>66.8</v>
+      </c>
+      <c r="D54" s="32">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E54" s="32">
+        <v>66.2</v>
+      </c>
+      <c r="F54" s="32">
+        <v>60.4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="36">
+        <f>AVERAGE(J49:J52)</f>
+        <v>62.984999999999999</v>
+      </c>
+      <c r="K54" s="36">
+        <f t="shared" ref="K54:N54" si="1">AVERAGE(K49:K52)</f>
+        <v>62.805000000000007</v>
+      </c>
+      <c r="L54" s="36">
+        <f t="shared" si="1"/>
+        <v>61.335000000000001</v>
+      </c>
+      <c r="M54" s="36">
+        <f t="shared" si="1"/>
+        <v>58.532499999999999</v>
+      </c>
+      <c r="N54" s="36">
+        <f t="shared" si="1"/>
+        <v>56.5075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="33">
+        <v>3</v>
+      </c>
+      <c r="B55" s="32">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C55" s="32">
+        <v>68.3</v>
+      </c>
+      <c r="D55" s="32">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E55" s="32">
+        <v>66.3</v>
+      </c>
+      <c r="F55" s="32">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="33">
+        <v>4</v>
+      </c>
+      <c r="B56" s="32">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="C56" s="32">
+        <v>70.5</v>
+      </c>
+      <c r="D56" s="32">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E56" s="32">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="F56" s="32">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="33">
+        <v>5</v>
+      </c>
+      <c r="B57" s="32">
+        <v>63.8</v>
+      </c>
+      <c r="C57" s="32">
+        <v>64.2</v>
+      </c>
+      <c r="D57" s="32">
+        <v>61.6</v>
+      </c>
+      <c r="E57" s="32">
+        <v>61</v>
+      </c>
+      <c r="F57" s="32">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58">
+        <f>VAR(B53:F57)</f>
+        <v>14.968433333333328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <f>AVERAGE(B53:F57)</f>
+        <v>63.547999999999995</v>
+      </c>
+      <c r="I59" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="18" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4065,12 +4755,12 @@
         <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -4083,7 +4773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" thickTop="1">
+    <row r="3" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -4108,7 +4798,7 @@
       <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -4118,12 +4808,12 @@
       <c r="K3" s="9">
         <v>0</v>
       </c>
-      <c r="L3" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L3" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -4133,7 +4823,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6">
+    <row r="4" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -4158,7 +4848,7 @@
       <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -4168,12 +4858,12 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L4" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -4183,7 +4873,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6">
+    <row r="5" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -4208,7 +4898,7 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -4218,12 +4908,12 @@
       <c r="K5" s="9">
         <v>0</v>
       </c>
-      <c r="L5" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L5" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -4233,7 +4923,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6">
+    <row r="6" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -4258,7 +4948,7 @@
       <c r="H6" s="8">
         <v>20</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -4268,12 +4958,12 @@
       <c r="K6" s="8">
         <v>0</v>
       </c>
-      <c r="L6" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L6" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M6" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4283,7 +4973,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6">
+    <row r="7" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -4308,7 +4998,7 @@
       <c r="H7" s="8">
         <v>20</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -4318,12 +5008,12 @@
       <c r="K7" s="8">
         <v>0</v>
       </c>
-      <c r="L7" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L7" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M7" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -4333,7 +5023,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6">
+    <row r="8" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -4358,7 +5048,7 @@
       <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -4368,12 +5058,12 @@
       <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="L8" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L8" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M8" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -4383,7 +5073,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6">
+    <row r="9" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -4408,7 +5098,7 @@
       <c r="H9" s="8">
         <v>20</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -4418,12 +5108,12 @@
       <c r="K9" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L9" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M9" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -4433,7 +5123,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6">
+    <row r="10" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -4458,7 +5148,7 @@
       <c r="H10" s="8">
         <v>20</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -4468,12 +5158,12 @@
       <c r="K10" s="8">
         <v>0</v>
       </c>
-      <c r="L10" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L10" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>1</v>
       </c>
       <c r="M10" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -4483,7 +5173,7 @@
         <v>0.59699999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6">
+    <row r="11" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A11" s="1">
         <v>31</v>
       </c>
@@ -4508,7 +5198,7 @@
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -4518,12 +5208,12 @@
       <c r="K11" s="9">
         <v>19</v>
       </c>
-      <c r="L11" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L11" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.44927536231884058</v>
       </c>
       <c r="M11" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.38</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -4533,7 +5223,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6">
+    <row r="12" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A12" s="1">
         <v>31</v>
       </c>
@@ -4558,7 +5248,7 @@
       <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -4568,12 +5258,12 @@
       <c r="K12" s="9">
         <v>20</v>
       </c>
-      <c r="L12" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L12" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M12" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.5</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -4583,7 +5273,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6">
+    <row r="13" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A13" s="3">
         <v>33</v>
       </c>
@@ -4608,7 +5298,7 @@
       <c r="H13" s="8">
         <v>30</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -4618,12 +5308,12 @@
       <c r="K13" s="12">
         <v>20.5</v>
       </c>
-      <c r="L13" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L13" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.28446771378708546</v>
       </c>
       <c r="M13" s="12">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.55706521739130443</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -4634,7 +5324,7 @@
       </c>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6">
+    <row r="14" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A14" s="3">
         <v>33</v>
       </c>
@@ -4659,7 +5349,7 @@
       <c r="H14" s="12">
         <v>30</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -4669,12 +5359,12 @@
       <c r="K14" s="12">
         <v>22.2</v>
       </c>
-      <c r="L14" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L14" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.30948678071539665</v>
       </c>
       <c r="M14" s="12">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.52731591448931114</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -4685,7 +5375,7 @@
       </c>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" ht="15.6">
+    <row r="15" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A15" s="3">
         <v>33</v>
       </c>
@@ -4710,7 +5400,7 @@
       <c r="H15" s="12">
         <v>30</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4000011999999997</v>
       </c>
@@ -4718,12 +5408,12 @@
       <c r="K15" s="12">
         <v>23.1</v>
       </c>
-      <c r="L15" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L15" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M15" s="12" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -4734,7 +5424,7 @@
       </c>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6">
+    <row r="16" spans="1:16" ht="16.2" hidden="1" thickTop="1">
       <c r="A16" s="3">
         <v>33</v>
       </c>
@@ -4759,7 +5449,7 @@
       <c r="H16" s="12">
         <v>30</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -4769,12 +5459,12 @@
       <c r="K16" s="12">
         <v>25.1</v>
       </c>
-      <c r="L16" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L16" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.23006134969325151</v>
       </c>
       <c r="M16" s="12">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.62593516209476308</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4785,7 +5475,7 @@
       </c>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -4810,7 +5500,7 @@
       <c r="H17" s="12">
         <v>30</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -4820,12 +5510,12 @@
       <c r="K17" s="8">
         <v>25.4</v>
       </c>
-      <c r="L17" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L17" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.30315500685871055</v>
       </c>
       <c r="M17" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.53473684210526318</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -4836,7 +5526,7 @@
       </c>
       <c r="P17" s="14"/>
     </row>
-    <row r="18" spans="1:17" ht="15.6">
+    <row r="18" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -4861,7 +5551,7 @@
       <c r="H18" s="12">
         <v>30</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2000015999999998</v>
       </c>
@@ -4871,12 +5561,12 @@
       <c r="K18" s="8">
         <v>26.1</v>
       </c>
-      <c r="L18" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L18" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.2474048442906574</v>
       </c>
       <c r="M18" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.60332871012482669</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -4890,7 +5580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15.6">
+    <row r="19" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -4915,7 +5605,7 @@
       <c r="H19" s="8">
         <v>50</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -4925,12 +5615,12 @@
       <c r="K19" s="8">
         <v>26.3</v>
       </c>
-      <c r="L19" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L19" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.14052287581699341</v>
       </c>
       <c r="M19" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.75358166189111753</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -4940,7 +5630,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.6">
+    <row r="20" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -4965,7 +5655,7 @@
       <c r="H20" s="8">
         <v>50</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -4975,12 +5665,12 @@
       <c r="K20" s="8">
         <v>26.4</v>
       </c>
-      <c r="L20" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L20" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.20720720720720728</v>
       </c>
       <c r="M20" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.65671641791044766</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -4990,7 +5680,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.6">
+    <row r="21" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -5015,7 +5705,7 @@
       <c r="H21" s="8">
         <v>30</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8000013999999993</v>
       </c>
@@ -5023,12 +5713,12 @@
       <c r="K21" s="8">
         <v>26.7</v>
       </c>
-      <c r="L21" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L21" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M21" s="8" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -5038,7 +5728,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.6">
+    <row r="22" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -5063,7 +5753,7 @@
       <c r="H22" s="8">
         <v>30</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2000015999999998</v>
       </c>
@@ -5073,12 +5763,12 @@
       <c r="K22" s="8">
         <v>28.8</v>
       </c>
-      <c r="L22" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L22" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.2772898368883312</v>
       </c>
       <c r="M22" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.56581532416502955</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5088,7 +5778,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.6">
+    <row r="23" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -5113,7 +5803,7 @@
       <c r="H23" s="8">
         <v>50</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -5123,12 +5813,12 @@
       <c r="K23" s="8">
         <v>30.6</v>
       </c>
-      <c r="L23" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L23" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.12696148359486448</v>
       </c>
       <c r="M23" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.77468354430379749</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -5138,7 +5828,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.6">
+    <row r="24" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -5163,7 +5853,7 @@
       <c r="H24" s="8">
         <v>30</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6000017999999994</v>
       </c>
@@ -5173,12 +5863,12 @@
       <c r="K24" s="8">
         <v>31</v>
       </c>
-      <c r="L24" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L24" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.20205920205920208</v>
       </c>
       <c r="M24" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.66381156316916479</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -5188,7 +5878,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.6">
+    <row r="25" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -5213,7 +5903,7 @@
       <c r="H25" s="2">
         <v>10</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.4</v>
       </c>
@@ -5221,12 +5911,12 @@
       <c r="K25" s="12">
         <v>31</v>
       </c>
-      <c r="L25" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L25" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M25" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -5236,7 +5926,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.6">
+    <row r="26" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A26" s="3">
         <v>33</v>
       </c>
@@ -5261,7 +5951,7 @@
       <c r="H26" s="8">
         <v>30</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6000017999999994</v>
       </c>
@@ -5271,12 +5961,12 @@
       <c r="K26" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="L26" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L26" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.24510932105868818</v>
       </c>
       <c r="M26" s="12">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.60628465804066534</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5286,7 +5976,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.6">
+    <row r="27" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A27" s="3">
         <v>34</v>
       </c>
@@ -5311,7 +6001,7 @@
       <c r="H27" s="8">
         <v>50</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -5321,12 +6011,12 @@
       <c r="K27" s="12">
         <v>33.9</v>
       </c>
-      <c r="L27" s="19">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L27" s="18">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.153558052434457</v>
       </c>
       <c r="M27" s="12">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.73376623376623373</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -5336,7 +6026,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.6">
+    <row r="28" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -5361,7 +6051,7 @@
       <c r="H28" s="8">
         <v>50</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -5371,12 +6061,12 @@
       <c r="K28" s="12">
         <v>34.799999999999997</v>
       </c>
-      <c r="L28" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L28" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.11898734177215196</v>
       </c>
       <c r="M28" s="4">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.78733031674208132</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -5386,7 +6076,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.6">
+    <row r="29" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -5411,7 +6101,7 @@
       <c r="H29" s="8">
         <v>30</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -5421,12 +6111,12 @@
       <c r="K29" s="8">
         <v>35.6</v>
       </c>
-      <c r="L29" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L29" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.1484272216242076</v>
       </c>
       <c r="M29" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.74151218496146643</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -5436,7 +6126,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.6">
+    <row r="30" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -5461,7 +6151,7 @@
       <c r="H30" s="8">
         <v>50</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -5471,12 +6161,12 @@
       <c r="K30" s="8">
         <v>37.299999999999997</v>
       </c>
-      <c r="L30" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L30" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.1001206272617612</v>
       </c>
       <c r="M30" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.81798245614035081</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -5486,7 +6176,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.6">
+    <row r="31" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A31" s="1">
         <v>34</v>
       </c>
@@ -5511,7 +6201,7 @@
       <c r="H31" s="8">
         <v>50</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -5521,12 +6211,12 @@
       <c r="K31" s="8">
         <v>37.299999999999997</v>
       </c>
-      <c r="L31" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L31" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.15706214689265544</v>
       </c>
       <c r="M31" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.72851562499999989</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -5536,7 +6226,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.6">
+    <row r="32" spans="1:17" ht="16.2" hidden="1" thickTop="1">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -5561,7 +6251,7 @@
       <c r="H32" s="8">
         <v>50</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -5571,12 +6261,12 @@
       <c r="K32" s="8">
         <v>39</v>
       </c>
-      <c r="L32" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L32" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="M32" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -5586,7 +6276,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.6">
+    <row r="33" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -5611,7 +6301,7 @@
       <c r="H33" s="8">
         <v>50</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -5621,12 +6311,12 @@
       <c r="K33" s="8">
         <v>40</v>
       </c>
-      <c r="L33" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L33" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.14893617021276595</v>
       </c>
       <c r="M33" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.7407407407407407</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5636,7 +6326,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.6">
+    <row r="34" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5661,7 +6351,7 @@
       <c r="H34" s="8">
         <v>30</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -5671,12 +6361,12 @@
       <c r="K34" s="8">
         <v>40.299999999999997</v>
       </c>
-      <c r="L34" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L34" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.15247108307045215</v>
       </c>
       <c r="M34" s="8">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.73540145985401462</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5686,7 +6376,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.6">
+    <row r="35" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5711,7 +6401,7 @@
       <c r="H35" s="8">
         <v>30</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4.0000019999999994</v>
       </c>
@@ -5719,12 +6409,12 @@
       <c r="K35" s="8">
         <v>42</v>
       </c>
-      <c r="L35" s="20">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L35" s="19">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M35" s="8" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -5733,17 +6423,17 @@
       <c r="O35" s="15">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.6">
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5768,7 +6458,7 @@
       <c r="H36" s="8">
         <v>50</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -5778,12 +6468,12 @@
       <c r="K36" s="8">
         <v>42.7</v>
       </c>
-      <c r="L36" s="17">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L36" s="16">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>0.11594202898550721</v>
       </c>
       <c r="M36" s="2">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>0.79220779220779225</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5793,7 +6483,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.6">
+    <row r="37" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -5818,7 +6508,7 @@
       <c r="H37" s="2">
         <v>10</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>2.8</v>
       </c>
@@ -5826,12 +6516,12 @@
       <c r="K37" s="12">
         <v>50</v>
       </c>
-      <c r="L37" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L37" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M37" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5841,7 +6531,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.6">
+    <row r="38" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -5866,7 +6556,7 @@
       <c r="H38" s="2">
         <v>10</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.2</v>
       </c>
@@ -5874,12 +6564,12 @@
       <c r="K38" s="12">
         <v>51</v>
       </c>
-      <c r="L38" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L38" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5889,7 +6579,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.6">
+    <row r="39" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A39" s="3">
         <v>31</v>
       </c>
@@ -5914,7 +6604,7 @@
       <c r="H39" s="2">
         <v>10</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>3.6</v>
       </c>
@@ -5922,12 +6612,12 @@
       <c r="K39" s="12">
         <v>52.3</v>
       </c>
-      <c r="L39" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L39" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M39" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5937,7 +6627,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.6">
+    <row r="40" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A40" s="3">
         <v>31</v>
       </c>
@@ -5962,7 +6652,7 @@
       <c r="H40" s="2">
         <v>10</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>4</v>
       </c>
@@ -5970,12 +6660,12 @@
       <c r="K40" s="12">
         <v>66</v>
       </c>
-      <c r="L40" s="18">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="L40" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
         <v>-1</v>
       </c>
       <c r="M40" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5985,7 +6675,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.6">
+    <row r="41" spans="1:23" ht="16.2" thickTop="1">
       <c r="A41" s="1">
         <v>76</v>
       </c>
@@ -5995,7 +6685,9 @@
       <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E41" s="4">
         <v>0.6</v>
       </c>
@@ -6008,30 +6700,31 @@
       <c r="H41" s="12">
         <v>20</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.24</v>
       </c>
-      <c r="J41" s="8" t="e">
-        <f>AVERAGE(n)/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M41" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N41" s="31" t="s">
+      <c r="J41" s="8">
+        <v>49.85</v>
+      </c>
+      <c r="K41" s="8">
+        <v>49</v>
+      </c>
+      <c r="L41" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>8.5988872028325888E-3</v>
+      </c>
+      <c r="M41" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>0.98294884653961878</v>
+      </c>
+      <c r="N41" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="13">
         <v>6.3520000000000003</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="25">
         <v>0.05</v>
       </c>
     </row>
@@ -6045,9 +6738,11 @@
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>1</v>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.6</v>
       </c>
       <c r="F42" s="12">
         <v>0.4</v>
@@ -6058,27 +6753,31 @@
       <c r="H42" s="12">
         <v>20</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.4</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="31" t="s">
+        <v>0.24</v>
+      </c>
+      <c r="J42" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="K42" s="8">
+        <v>49.5</v>
+      </c>
+      <c r="L42" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>0.01</v>
+      </c>
+      <c r="M42" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>0.98019801980198018</v>
+      </c>
+      <c r="N42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="13">
         <v>6.3520000000000003</v>
       </c>
-      <c r="R42" s="30">
+      <c r="R42" s="25">
         <v>0.05</v>
       </c>
     </row>
@@ -6092,9 +6791,11 @@
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E43" s="2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F43" s="12">
         <v>0.4</v>
@@ -6105,475 +6806,1075 @@
       <c r="H43" s="12">
         <v>20</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="J43" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="K43" s="8">
+        <v>65.2</v>
+      </c>
+      <c r="L43" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-8.2157676348547759E-2</v>
+      </c>
+      <c r="M43" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1790235081374323</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="R43" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.6">
+      <c r="A44" s="1">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H44" s="12">
+        <v>20</v>
+      </c>
+      <c r="I44" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="J44" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="K44" s="8">
+        <v>64.77</v>
+      </c>
+      <c r="L44" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-6.819493691762181E-2</v>
+      </c>
+      <c r="M44" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.146371681415929</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+      <c r="R44" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.6" hidden="1">
+      <c r="A45" s="1">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H45" s="12">
+        <v>20</v>
+      </c>
+      <c r="I45" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="31" t="s">
+      <c r="J45" s="8">
+        <v>58.9</v>
+      </c>
+      <c r="K45" s="8">
+        <v>67.3</v>
+      </c>
+      <c r="L45" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-6.6561014263074481E-2</v>
+      </c>
+      <c r="M45" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1426146010186757</v>
+      </c>
+      <c r="N45" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O45" s="15">
         <v>6.3520000000000003</v>
       </c>
-      <c r="R43" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="15.6">
-      <c r="A44" s="1">
+    </row>
+    <row r="46" spans="1:23" ht="15.6">
+      <c r="A46" s="1">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H46" s="12">
+        <v>20</v>
+      </c>
+      <c r="I46" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J46" s="8">
+        <v>59.9</v>
+      </c>
+      <c r="K46" s="8">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="L46" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-6.0392156862745065E-2</v>
+      </c>
+      <c r="M46" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1285475792988313</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.6">
+      <c r="A47" s="1">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H47" s="12">
+        <v>20</v>
+      </c>
+      <c r="I47" s="17">
+        <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J47" s="24">
+        <v>59.7</v>
+      </c>
+      <c r="K47" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="L47" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-7.081712062256805E-2</v>
+      </c>
+      <c r="M47" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1524288107202678</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="15">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.6">
+      <c r="A48" s="1">
         <v>77</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B48" s="1">
         <v>35</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4">
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="2">
         <v>0.6</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F48" s="8">
         <v>0.6</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G48" s="2">
         <v>0.05</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H48" s="12">
         <v>20</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I48" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="31" t="s">
+      <c r="J48" s="8">
+        <v>57.5</v>
+      </c>
+      <c r="K48" s="8">
+        <v>55.2</v>
+      </c>
+      <c r="L48" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>2.0408163265306097E-2</v>
+      </c>
+      <c r="M48" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="N48" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O48" s="15">
         <v>6.24</v>
       </c>
-      <c r="R44" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="15.6">
-      <c r="A45" s="1">
+    </row>
+    <row r="49" spans="1:18" ht="15.6">
+      <c r="A49" s="1">
         <v>77</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B49" s="1">
         <v>35</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F49" s="8">
         <v>0.6</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G49" s="2">
         <v>0.05</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H49" s="8">
         <v>20</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I49" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="31" t="s">
+      <c r="J49" s="8">
+        <v>65.5</v>
+      </c>
+      <c r="K49" s="8">
+        <v>75.8</v>
+      </c>
+      <c r="L49" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="M49" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="N49" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O49" s="15">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="15.6">
-      <c r="A46" s="1">
+      <c r="R49">
+        <f>(60.1265+59.3232)/2</f>
+        <v>59.724850000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.6">
+      <c r="A50" s="1">
         <v>77</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B50" s="1">
         <v>35</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2">
         <v>1.4</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F50" s="8">
         <v>0.6</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G50" s="2">
         <v>0.05</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H50" s="8">
         <v>20</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I50" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="31" t="s">
+      <c r="J50" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="K50" s="8">
+        <v>85</v>
+      </c>
+      <c r="L50" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="M50" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="N50" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O50" s="15">
         <v>6.24</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.6">
-      <c r="A47" s="1">
+    <row r="51" spans="1:18" ht="15.6">
+      <c r="A51" s="1">
         <v>78</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B51" s="1">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4">
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="2">
         <v>0.6</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F51" s="8">
         <v>0.6</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G51" s="2">
         <v>0.5</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H51" s="8">
         <v>2</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I51" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="31" t="s">
+      <c r="J51" s="8">
+        <v>62.95</v>
+      </c>
+      <c r="K51" s="8">
+        <v>59.94</v>
+      </c>
+      <c r="L51" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="M51" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="N51" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O51" s="15">
         <v>6.33</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.6">
-      <c r="A48" s="1">
+    <row r="52" spans="1:18" ht="15.6">
+      <c r="A52" s="3">
         <v>78</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B52" s="1">
         <v>35</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="4">
         <v>1</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F52" s="8">
         <v>0.6</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G52" s="2">
         <v>0.5</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H52" s="8">
         <v>2</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I52" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="31" t="s">
+      <c r="J52" s="12">
+        <f>(69.9+72.4)/2</f>
+        <v>71.150000000000006</v>
+      </c>
+      <c r="K52" s="12">
+        <f>(76.36+77.6)/2</f>
+        <v>76.97999999999999</v>
+      </c>
+      <c r="L52" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="M52" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="N52" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O52" s="15">
         <v>6.33</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.6">
-      <c r="A49" s="1">
+    <row r="53" spans="1:18" ht="15.6">
+      <c r="A53" s="3">
         <v>78</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B53" s="1">
         <v>35</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2">
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="2">
         <v>1.4</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F53" s="8">
         <v>0.6</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G53" s="2">
         <v>0.5</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H53" s="8">
         <v>2</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I53" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="31" t="s">
+      <c r="J53" s="12">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="K53" s="12">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="L53" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="M53" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="N53" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O53" s="15">
         <v>6.33</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.6">
-      <c r="A50" s="3">
+    <row r="54" spans="1:18" ht="15.6">
+      <c r="A54" s="1">
         <v>79</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B54" s="1">
         <v>35</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4">
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2">
         <v>0.6</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F54" s="8">
         <v>0.6</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G54" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H54" s="8">
         <v>200</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I54" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.36</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12">
+      <c r="J54" s="8">
         <v>0</v>
       </c>
-      <c r="L50" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="K54" s="8">
+        <v>39.4</v>
+      </c>
+      <c r="L54" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1</v>
+      </c>
+      <c r="M54" s="4" t="e">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="31" t="s">
+      <c r="N54" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O54" s="15">
         <v>6.26</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.6">
-      <c r="A51" s="3">
+    <row r="55" spans="1:18" ht="15.6">
+      <c r="A55" s="1">
         <v>79</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B55" s="1">
         <v>35</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F55" s="12">
         <v>0.6</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G55" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H55" s="12">
         <v>200</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I55" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N51" s="31" t="s">
+      <c r="J55" s="8">
+        <v>61.17</v>
+      </c>
+      <c r="K55" s="8">
+        <v>63.26</v>
+      </c>
+      <c r="L55" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-1.679659246162498E-2</v>
+      </c>
+      <c r="M55" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.0341670753637404</v>
+      </c>
+      <c r="N55" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O55" s="13">
         <v>6.26</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.6">
-      <c r="A52" s="26">
+    <row r="56" spans="1:18" ht="15.6">
+      <c r="A56" s="23">
         <v>79</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B56" s="23">
         <v>35</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2">
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="4">
         <v>1.4</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F56" s="12">
         <v>0.6</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G56" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H52" s="27">
+      <c r="H56" s="30">
         <v>200</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I56" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="18" t="e">
-        <f>(Tableau2[[#This Row],[Frontside]]-Tableau2[[#This Row],[Backside]])/(Tableau2[[#This Row],[Frontside]]+Tableau2[[#This Row],[Backside]])</f>
+      <c r="J56" s="24">
+        <f>(62.33+62.15)/2</f>
+        <v>62.239999999999995</v>
+      </c>
+      <c r="K56" s="24">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L56" s="17">
+        <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="M56" s="4">
+        <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="N56" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="31">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.6">
+      <c r="C59" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61">
+        <v>77</v>
+      </c>
+      <c r="B61">
+        <v>0.36</v>
+      </c>
+      <c r="C61">
+        <v>57.5</v>
+      </c>
+      <c r="D61">
+        <v>55.2</v>
+      </c>
+      <c r="E61" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>2.0408163265306097E-2</v>
+      </c>
+      <c r="F61" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="G61">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>0.6</v>
+      </c>
+      <c r="C62">
+        <v>65.5</v>
+      </c>
+      <c r="D62">
+        <v>75.8</v>
+      </c>
+      <c r="E62" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="F62" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="G62">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1">
+      <c r="A63">
+        <v>76</v>
+      </c>
+      <c r="B63">
+        <v>0.24</v>
+      </c>
+      <c r="C63">
+        <f>AVERAGE(J43:J44)</f>
+        <v>55.9</v>
+      </c>
+      <c r="D63">
+        <f>AVERAGE(K43:K44)</f>
+        <v>64.984999999999999</v>
+      </c>
+      <c r="E63" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-7.515407205195021E-2</v>
+      </c>
+      <c r="F63" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.1625223613595708</v>
+      </c>
+      <c r="G63">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>0.84</v>
+      </c>
+      <c r="C64">
+        <v>66.5</v>
+      </c>
+      <c r="D64">
+        <v>85</v>
+      </c>
+      <c r="E64" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="F64" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="G64">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>78</v>
+      </c>
+      <c r="B65">
+        <v>0.36</v>
+      </c>
+      <c r="C65">
+        <v>62.95</v>
+      </c>
+      <c r="D65">
+        <v>59.94</v>
+      </c>
+      <c r="E65" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="F65" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="G65">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>0.6</v>
+      </c>
+      <c r="C66">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D66">
+        <v>76.97999999999999</v>
+      </c>
+      <c r="E66" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="F66" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="G66">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>0.84</v>
+      </c>
+      <c r="C67">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D67">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E67" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F67" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G67">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
+      <c r="A68">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>0.4</v>
+      </c>
+      <c r="C68">
+        <f>AVERAGE(J49:J50)</f>
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <f>AVERAGE(K49:K50)</f>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E68" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-9.8360655737704958E-2</v>
+      </c>
+      <c r="F68" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="G68">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>79</v>
+      </c>
+      <c r="B69">
+        <v>0.6</v>
+      </c>
+      <c r="C69">
+        <v>61.17</v>
+      </c>
+      <c r="D69">
+        <v>63.26</v>
+      </c>
+      <c r="E69" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-1.679659246162498E-2</v>
+      </c>
+      <c r="F69" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.0341670753637404</v>
+      </c>
+      <c r="G69">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1">
+      <c r="A70">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C70">
+        <f>AVERAGE(J53:J54)</f>
+        <v>35.020000000000003</v>
+      </c>
+      <c r="D70">
+        <f>AVERAGE(K53:K54)</f>
+        <v>59.47</v>
+      </c>
+      <c r="E70" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-0.25875754048047406</v>
+      </c>
+      <c r="F70" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.6981724728726439</v>
+      </c>
+      <c r="G70">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>0.84</v>
+      </c>
+      <c r="C71">
+        <v>62.239999999999995</v>
+      </c>
+      <c r="D71">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E71" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F71" s="36">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G71">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>0.36</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>39.4</v>
+      </c>
+      <c r="E72" s="36">
+        <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
+        <v>-1</v>
+      </c>
+      <c r="F72" s="36" t="e">
+        <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="4" t="e">
-        <f>Tableau2[[#This Row],[Backside]]/Tableau2[[#This Row],[Frontside]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N52" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O52" s="29">
+      <c r="G72">
         <v>6.26</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.6">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="15"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="15"/>
+    <row r="75" spans="1:7">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="22"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="D76" s="22">
+        <v>77</v>
+      </c>
+      <c r="E76" s="22">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="F76" s="22"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="D77" s="22">
+        <v>78</v>
+      </c>
+      <c r="E77" s="22">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="D78" s="22">
+        <v>79</v>
+      </c>
+      <c r="E78" s="22">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="F78" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="C59:D59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6588,4 +7889,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Synthèse-Experiences/Hole_Size_Dose.xlsx
+++ b/Synthèse-Experiences/Hole_Size_Dose.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="65">
   <si>
     <t>backside</t>
   </si>
@@ -257,12 +257,24 @@
   <si>
     <t>pente</t>
   </si>
+  <si>
+    <t>Mean Hole size nm</t>
+  </si>
+  <si>
+    <t>Results:</t>
+  </si>
+  <si>
+    <t>Hole ratio (front/back) is between 0,9 and 1,3 . It seems to tend to 2 for high number of loop (~300)</t>
+  </si>
+  <si>
+    <t>Hole ratio:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +353,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -536,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,15 +628,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,6 +643,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,13 +690,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -745,45 +798,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -846,6 +867,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -866,8 +888,229 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -997,230 +1240,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1241,6 +1260,8 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1900,7 +1921,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2018,11 +2038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176909696"/>
-        <c:axId val="176915584"/>
+        <c:axId val="212452864"/>
+        <c:axId val="212454400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176909696"/>
+        <c:axId val="212452864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,12 +2052,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176915584"/>
+        <c:crossAx val="212454400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176915584"/>
+        <c:axId val="212454400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2048,14 +2068,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176909696"/>
+        <c:crossAx val="212452864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2108,7 +2127,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2226,11 +2244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195571072"/>
-        <c:axId val="195585152"/>
+        <c:axId val="213214720"/>
+        <c:axId val="213216256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195571072"/>
+        <c:axId val="213214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -2241,12 +2259,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195585152"/>
+        <c:crossAx val="213216256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195585152"/>
+        <c:axId val="213216256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,14 +2275,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195571072"/>
+        <c:crossAx val="213214720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2515,11 +2532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195514752"/>
-        <c:axId val="195344640"/>
+        <c:axId val="213126144"/>
+        <c:axId val="213132416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195514752"/>
+        <c:axId val="213126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,12 +2565,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195344640"/>
+        <c:crossAx val="213132416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195344640"/>
+        <c:axId val="213132416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2607,360 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195514752"/>
+        <c:crossAx val="213126144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Backside size (dose)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>78 Loop2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$41:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$41:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.540000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>76 Loop20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Feuil2!$I$44,Feuil2!$I$46,Feuil2!$I$48,Feuil2!$I$49,Feuil2!$I$50,Feuil2!$I$51)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Feuil2!$K$44,Feuil2!$K$46,Feuil2!$K$48,Feuil2!$K$49,Feuil2!$K$50,Feuil2!$K$51)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>77 Loop20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Feuil2!$I$47,Feuil2!$I$52,Feuil2!$I$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Feuil2!$K$47,Feuil2!$K$53,Feuil2!$K$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>79 Loop200</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil2!$I$54:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil2!$K$54:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="20601856"/>
+        <c:axId val="20600320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="20601856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t>Dose (pC)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20600320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20600320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Hole size (nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2743,7 +3113,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>337677</xdr:colOff>
+      <xdr:colOff>337676</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
@@ -2874,6 +3244,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>303521</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>93490</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>24334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6151</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14162314" y="6640286"/>
+          <a:ext cx="4632580" cy="3004457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2895,31 +3350,31 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A41:O56">
-    <sortCondition ref="A2:A56"/>
+  <sortState ref="A44:O51">
+    <sortCondition ref="I2:I56"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Exp" dataDxfId="32" totalsRowDxfId="31"/>
     <tableColumn id="19" name="Thickness" dataDxfId="30" totalsRowDxfId="29"/>
     <tableColumn id="3" name="Image Type" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" name="Measure with*" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="dose on design" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="15" name="Design Dose factor" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="17" name="Dot Dose pC" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="18" name="Loop" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="16" name="Final dose" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="5" name="Measure with*" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="6" name="dose on design" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="15" name="Design Dose factor" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="17" name="Dot Dose pC" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="18" name="Loop" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="16" name="Final dose" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Frontside - direct" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="8" name="Backside - transmission" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" name="Ecart relatif" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="7" name="Frontside - direct" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="8" name="Backside - transmission" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="11" name="Ecart relatif" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hole Ratio" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="12" name="Hole Ratio" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Column" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="14" name="Current pA" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="13" name="Column" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="14" name="Current pA" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3265,10 +3720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -4364,25 +4819,25 @@
       <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="30">
         <v>1</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="30">
         <v>2</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="30">
         <v>3</v>
       </c>
-      <c r="M48" s="33">
-        <v>4</v>
-      </c>
-      <c r="N48" s="33">
+      <c r="M48" s="30">
+        <v>4</v>
+      </c>
+      <c r="N48" s="30">
         <v>5</v>
       </c>
     </row>
@@ -4399,25 +4854,25 @@
       <c r="E49" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="31">
         <v>5</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="30">
         <v>1</v>
       </c>
-      <c r="J49" s="32">
+      <c r="J49" s="29">
         <v>63.29</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="29">
         <v>62.47</v>
       </c>
-      <c r="L49" s="32">
+      <c r="L49" s="29">
         <v>61.03</v>
       </c>
-      <c r="M49" s="32">
+      <c r="M49" s="29">
         <v>57.9</v>
       </c>
-      <c r="N49" s="32">
+      <c r="N49" s="29">
         <v>57.17</v>
       </c>
     </row>
@@ -4425,235 +4880,235 @@
       <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="31">
         <v>8</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="30">
         <v>1</v>
       </c>
-      <c r="J50" s="32">
+      <c r="J50" s="29">
         <v>62.81</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="29">
         <v>62.68</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="29">
         <v>61.03</v>
       </c>
-      <c r="M50" s="32">
+      <c r="M50" s="29">
         <v>58.21</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="34">
         <v>53.26</v>
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="H51" s="34">
+      <c r="H51" s="31">
         <v>12</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="30">
         <v>1</v>
       </c>
-      <c r="J51" s="32">
+      <c r="J51" s="29">
         <v>62.65</v>
       </c>
-      <c r="K51" s="32">
+      <c r="K51" s="29">
         <v>62.77</v>
       </c>
-      <c r="L51" s="32">
+      <c r="L51" s="29">
         <v>61.32</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M51" s="29">
         <v>58.52</v>
       </c>
-      <c r="N51" s="32">
+      <c r="N51" s="29">
         <v>57.26</v>
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="30">
         <v>1</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="30">
         <v>2</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="30">
         <v>3</v>
       </c>
-      <c r="E52" s="33">
-        <v>4</v>
-      </c>
-      <c r="F52" s="33">
+      <c r="E52" s="30">
+        <v>4</v>
+      </c>
+      <c r="F52" s="30">
         <v>5</v>
       </c>
-      <c r="H52" s="34">
+      <c r="H52" s="31">
         <v>20</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="30">
         <v>1</v>
       </c>
-      <c r="J52" s="32">
+      <c r="J52" s="29">
         <v>63.19</v>
       </c>
-      <c r="K52" s="32">
+      <c r="K52" s="29">
         <v>63.3</v>
       </c>
-      <c r="L52" s="32">
+      <c r="L52" s="29">
         <v>61.96</v>
       </c>
-      <c r="M52" s="32">
+      <c r="M52" s="29">
         <v>59.5</v>
       </c>
-      <c r="N52" s="32">
+      <c r="N52" s="29">
         <v>58.34</v>
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="33">
+      <c r="A53" s="30">
         <v>1</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="29">
         <v>62.8</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="29">
         <v>62.7</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="29">
         <v>61</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="29">
         <v>58.2</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="29">
         <v>56.2</v>
       </c>
       <c r="I53" t="s">
         <v>51</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="33">
         <f>VAR(J49:J52)</f>
         <v>9.2633333333332901E-2</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="33">
         <f t="shared" ref="K53:N53" si="0">VAR(K49:K52)</f>
         <v>0.12469999999999927</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="33">
         <f t="shared" si="0"/>
         <v>0.19229999999999992</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="33">
         <f t="shared" si="0"/>
         <v>0.48009166666666703</v>
       </c>
-      <c r="N53" s="38">
+      <c r="N53" s="35">
         <f t="shared" si="0"/>
         <v>4.9698250000000082</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="33">
+      <c r="A54" s="30">
         <v>2</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="29">
         <v>65.099999999999994</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="29">
         <v>66.8</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="29">
         <v>67.099999999999994</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="29">
         <v>66.2</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="29">
         <v>60.4</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="33">
         <f>AVERAGE(J49:J52)</f>
         <v>62.984999999999999</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="33">
         <f t="shared" ref="K54:N54" si="1">AVERAGE(K49:K52)</f>
         <v>62.805000000000007</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="33">
         <f t="shared" si="1"/>
         <v>61.335000000000001</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="33">
         <f t="shared" si="1"/>
         <v>58.532499999999999</v>
       </c>
-      <c r="N54" s="36">
+      <c r="N54" s="33">
         <f t="shared" si="1"/>
         <v>56.5075</v>
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="33">
+      <c r="A55" s="30">
         <v>3</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="29">
         <v>67.599999999999994</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="29">
         <v>68.3</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="29">
         <v>66.099999999999994</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="29">
         <v>66.3</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="29">
         <v>58.7</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="33">
-        <v>4</v>
-      </c>
-      <c r="B56" s="32">
+      <c r="A56" s="30">
+        <v>4</v>
+      </c>
+      <c r="B56" s="29">
         <v>64.099999999999994</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="29">
         <v>70.5</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="29">
         <v>68.900000000000006</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="29">
         <v>64.900000000000006</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="29">
         <v>58.6</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="33">
+      <c r="A57" s="30">
         <v>5</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="29">
         <v>63.8</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="29">
         <v>64.2</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="29">
         <v>61.6</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="29">
         <v>61</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="29">
         <v>57.6</v>
       </c>
     </row>
@@ -4690,13 +5145,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4704,7 +5159,7 @@
     <col min="1" max="1" width="11.21875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
@@ -4718,10 +5173,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6">
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
@@ -6423,15 +6878,15 @@
       <c r="O35" s="15">
         <v>0.45800000000000002</v>
       </c>
-      <c r="Q35" s="29" t="s">
+      <c r="Q35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" ht="16.2" hidden="1" thickTop="1">
       <c r="A36" s="1">
@@ -6677,7 +7132,7 @@
     </row>
     <row r="41" spans="1:23" ht="16.2" thickTop="1">
       <c r="A41" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
         <v>35</v>
@@ -6692,37 +7147,37 @@
         <v>0.6</v>
       </c>
       <c r="F41" s="12">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G41" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I41" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.24</v>
-      </c>
-      <c r="J41" s="8">
-        <v>49.85</v>
-      </c>
-      <c r="K41" s="8">
-        <v>49</v>
+        <v>0.36</v>
+      </c>
+      <c r="J41" s="10">
+        <v>62.95</v>
+      </c>
+      <c r="K41" s="10">
+        <v>59.94</v>
       </c>
       <c r="L41" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>8.5988872028325888E-3</v>
+        <v>2.4493449426316261E-2</v>
       </c>
       <c r="M41" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>0.98294884653961878</v>
+        <v>0.95218427323272425</v>
       </c>
       <c r="N41" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="13">
-        <v>6.3520000000000003</v>
+        <v>6.33</v>
       </c>
       <c r="R41" s="25">
         <v>0.05</v>
@@ -6730,7 +7185,7 @@
     </row>
     <row r="42" spans="1:23" ht="15.6">
       <c r="A42" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1">
         <v>35</v>
@@ -6739,43 +7194,45 @@
         <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12">
         <v>0.6</v>
       </c>
-      <c r="F42" s="12">
-        <v>0.4</v>
-      </c>
       <c r="G42" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I42" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="J42" s="8">
-        <v>50.5</v>
+        <f>(69.9+72.4)/2</f>
+        <v>71.150000000000006</v>
       </c>
       <c r="K42" s="8">
-        <v>49.5</v>
+        <f>(76.36+77.6)/2</f>
+        <v>76.97999999999999</v>
       </c>
       <c r="L42" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>0.01</v>
+        <v>-3.9357321271855698E-2</v>
       </c>
       <c r="M42" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>0.98019801980198018</v>
+        <v>1.0819395643007728</v>
       </c>
       <c r="N42" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="13">
-        <v>6.3520000000000003</v>
+        <v>6.33</v>
       </c>
       <c r="R42" s="25">
         <v>0.05</v>
@@ -6783,7 +7240,7 @@
     </row>
     <row r="43" spans="1:23" ht="15.6">
       <c r="A43" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1">
         <v>35</v>
@@ -6792,43 +7249,43 @@
         <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F43" s="12">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G43" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H43" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I43" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="J43" s="8">
-        <v>55.3</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="K43" s="8">
-        <v>65.2</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="L43" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-8.2157676348547759E-2</v>
+        <v>-6.3511164594197075E-2</v>
       </c>
       <c r="M43" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.1790235081374323</v>
+        <v>1.1356367789834381</v>
       </c>
       <c r="N43" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="15">
-        <v>6.3520000000000003</v>
+        <v>6.33</v>
       </c>
       <c r="R43" s="25">
         <v>0.5</v>
@@ -6848,7 +7305,7 @@
         <v>28</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F44" s="12">
         <v>0.4</v>
@@ -6861,21 +7318,21 @@
       </c>
       <c r="I44" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="J44" s="8">
-        <v>56.5</v>
+        <v>49.85</v>
       </c>
       <c r="K44" s="8">
-        <v>64.77</v>
+        <v>49</v>
       </c>
       <c r="L44" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-6.819493691762181E-2</v>
+        <v>8.5988872028325888E-3</v>
       </c>
       <c r="M44" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.146371681415929</v>
+        <v>0.98294884653961878</v>
       </c>
       <c r="N44" s="26" t="s">
         <v>33</v>
@@ -6951,7 +7408,7 @@
         <v>32</v>
       </c>
       <c r="E46" s="4">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="F46" s="8">
         <v>0.4</v>
@@ -6964,21 +7421,21 @@
       </c>
       <c r="I46" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.55999999999999994</v>
+        <v>0.24</v>
       </c>
       <c r="J46" s="8">
-        <v>59.9</v>
+        <v>50.5</v>
       </c>
       <c r="K46" s="8">
-        <v>67.599999999999994</v>
+        <v>49.5</v>
       </c>
       <c r="L46" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-6.0392156862745065E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M46" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.1285475792988313</v>
+        <v>0.98019801980198018</v>
       </c>
       <c r="N46" s="26" t="s">
         <v>33</v>
@@ -6989,7 +7446,7 @@
     </row>
     <row r="47" spans="1:23" ht="15.6">
       <c r="A47" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="1">
         <v>35</v>
@@ -7001,10 +7458,10 @@
         <v>28</v>
       </c>
       <c r="E47" s="2">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="F47" s="8">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G47" s="2">
         <v>0.05</v>
@@ -7014,32 +7471,32 @@
       </c>
       <c r="I47" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="J47" s="24">
-        <v>59.7</v>
+        <v>0.36</v>
+      </c>
+      <c r="J47" s="8">
+        <v>57.5</v>
       </c>
       <c r="K47" s="8">
-        <v>68.8</v>
+        <v>55.2</v>
       </c>
       <c r="L47" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-7.081712062256805E-2</v>
+        <v>2.0408163265306097E-2</v>
       </c>
       <c r="M47" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.1524288107202678</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="N47" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O47" s="15">
-        <v>6.3520000000000003</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.6">
       <c r="A48" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="1">
         <v>35</v>
@@ -7048,13 +7505,13 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E48" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F48" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G48" s="2">
         <v>0.05</v>
@@ -7064,32 +7521,32 @@
       </c>
       <c r="I48" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="J48" s="8">
-        <v>57.5</v>
+        <v>55.3</v>
       </c>
       <c r="K48" s="8">
-        <v>55.2</v>
+        <v>65.2</v>
       </c>
       <c r="L48" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>2.0408163265306097E-2</v>
+        <v>-8.2157676348547759E-2</v>
       </c>
       <c r="M48" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>0.96000000000000008</v>
+        <v>1.1790235081374323</v>
       </c>
       <c r="N48" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O48" s="15">
-        <v>6.24</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.6">
       <c r="A49" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1">
         <v>35</v>
@@ -7104,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G49" s="2">
         <v>0.05</v>
@@ -7114,27 +7571,27 @@
       </c>
       <c r="I49" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J49" s="8">
-        <v>65.5</v>
+        <v>56.5</v>
       </c>
       <c r="K49" s="8">
-        <v>75.8</v>
+        <v>64.77</v>
       </c>
       <c r="L49" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-7.2894550601556946E-2</v>
+        <v>-6.819493691762181E-2</v>
       </c>
       <c r="M49" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.1572519083969466</v>
+        <v>1.146371681415929</v>
       </c>
       <c r="N49" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O49" s="15">
-        <v>6.24</v>
+        <v>6.3520000000000003</v>
       </c>
       <c r="R49">
         <f>(60.1265+59.3232)/2</f>
@@ -7143,7 +7600,7 @@
     </row>
     <row r="50" spans="1:18" ht="15.6">
       <c r="A50" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1">
         <v>35</v>
@@ -7152,13 +7609,13 @@
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2">
         <v>1.4</v>
       </c>
       <c r="F50" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G50" s="2">
         <v>0.05</v>
@@ -7168,32 +7625,32 @@
       </c>
       <c r="I50" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.84</v>
-      </c>
-      <c r="J50" s="8">
-        <v>66.5</v>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="J50" s="24">
+        <v>59.7</v>
       </c>
       <c r="K50" s="8">
-        <v>85</v>
+        <v>68.8</v>
       </c>
       <c r="L50" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-0.12211221122112212</v>
+        <v>-7.081712062256805E-2</v>
       </c>
       <c r="M50" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.2781954887218046</v>
+        <v>1.1524288107202678</v>
       </c>
       <c r="N50" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O50" s="15">
-        <v>6.24</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.6">
       <c r="A51" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1">
         <v>35</v>
@@ -7202,48 +7659,48 @@
         <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E51" s="2">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F51" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G51" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H51" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I51" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
-        <v>0.36</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J51" s="8">
-        <v>62.95</v>
+        <v>59.9</v>
       </c>
       <c r="K51" s="8">
-        <v>59.94</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="L51" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>2.4493449426316261E-2</v>
+        <v>-6.0392156862745065E-2</v>
       </c>
       <c r="M51" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>0.95218427323272425</v>
+        <v>1.1285475792988313</v>
       </c>
       <c r="N51" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O51" s="15">
-        <v>6.33</v>
+        <v>6.3520000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15.6">
       <c r="A52" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1">
         <v>35</v>
@@ -7261,41 +7718,39 @@
         <v>0.6</v>
       </c>
       <c r="G52" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H52" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I52" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.6</v>
       </c>
       <c r="J52" s="12">
-        <f>(69.9+72.4)/2</f>
-        <v>71.150000000000006</v>
+        <v>65.5</v>
       </c>
       <c r="K52" s="12">
-        <f>(76.36+77.6)/2</f>
-        <v>76.97999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="L52" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-3.9357321271855698E-2</v>
+        <v>-7.2894550601556946E-2</v>
       </c>
       <c r="M52" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.0819395643007728</v>
+        <v>1.1572519083969466</v>
       </c>
       <c r="N52" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O52" s="15">
-        <v>6.33</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.6">
       <c r="A53" s="3">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1">
         <v>35</v>
@@ -7304,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E53" s="2">
         <v>1.4</v>
@@ -7313,34 +7768,34 @@
         <v>0.6</v>
       </c>
       <c r="G53" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H53" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I53" s="17">
         <f>Tableau2[[#This Row],[Loop]]*Tableau2[[#This Row],[Dot Dose pC]]*Tableau2[[#This Row],[Design Dose factor]]*Tableau2[[#This Row],[dose on design]]</f>
         <v>0.84</v>
       </c>
       <c r="J53" s="12">
-        <v>70.040000000000006</v>
+        <v>66.5</v>
       </c>
       <c r="K53" s="12">
-        <v>79.540000000000006</v>
+        <v>85</v>
       </c>
       <c r="L53" s="17">
         <f>(Tableau2[[#This Row],[Frontside - direct]]-Tableau2[[#This Row],[Backside - transmission]])/(Tableau2[[#This Row],[Frontside - direct]]+Tableau2[[#This Row],[Backside - transmission]])</f>
-        <v>-6.3511164594197075E-2</v>
+        <v>-0.12211221122112212</v>
       </c>
       <c r="M53" s="4">
         <f>Tableau2[[#This Row],[Backside - transmission]]/Tableau2[[#This Row],[Frontside - direct]]</f>
-        <v>1.1356367789834381</v>
+        <v>1.2781954887218046</v>
       </c>
       <c r="N53" s="26" t="s">
         <v>33</v>
       </c>
       <c r="O53" s="15">
-        <v>6.33</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.6">
@@ -7465,7 +7920,7 @@
       <c r="G56" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="27">
         <v>200</v>
       </c>
       <c r="I56" s="17">
@@ -7490,15 +7945,15 @@
       <c r="N56" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="31">
+      <c r="O56" s="28">
         <v>6.26</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15.6">
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="28"/>
+      <c r="D59" s="37"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
@@ -7536,11 +7991,11 @@
       <c r="D61">
         <v>55.2</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.0408163265306097E-2</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.96000000000000008</v>
       </c>
@@ -7561,11 +8016,11 @@
       <c r="D62">
         <v>75.8</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-7.2894550601556946E-2</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1572519083969466</v>
       </c>
@@ -7582,19 +8037,19 @@
       </c>
       <c r="C63">
         <f>AVERAGE(J43:J44)</f>
-        <v>55.9</v>
+        <v>59.945000000000007</v>
       </c>
       <c r="D63">
         <f>AVERAGE(K43:K44)</f>
-        <v>64.984999999999999</v>
-      </c>
-      <c r="E63" s="36">
+        <v>64.27000000000001</v>
+      </c>
+      <c r="E63" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-7.515407205195021E-2</v>
-      </c>
-      <c r="F63" s="36">
+        <v>-3.4818661192287582E-2</v>
+      </c>
+      <c r="F63" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.1625223613595708</v>
+        <v>1.0721494703478189</v>
       </c>
       <c r="G63">
         <v>6.3520000000000003</v>
@@ -7613,11 +8068,11 @@
       <c r="D64">
         <v>85</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-0.12211221122112212</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.2781954887218046</v>
       </c>
@@ -7638,11 +8093,11 @@
       <c r="D65">
         <v>59.94</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>2.4493449426316261E-2</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>0.95218427323272425</v>
       </c>
@@ -7663,11 +8118,11 @@
       <c r="D66">
         <v>76.97999999999999</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-3.9357321271855698E-2</v>
       </c>
-      <c r="F66" s="36">
+      <c r="F66" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0819395643007728</v>
       </c>
@@ -7688,11 +8143,11 @@
       <c r="D67">
         <v>79.540000000000006</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-6.3511164594197075E-2</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.1356367789834381</v>
       </c>
@@ -7709,19 +8164,19 @@
       </c>
       <c r="C68">
         <f>AVERAGE(J49:J50)</f>
-        <v>66</v>
+        <v>58.1</v>
       </c>
       <c r="D68">
         <f>AVERAGE(K49:K50)</f>
-        <v>80.400000000000006</v>
-      </c>
-      <c r="E68" s="36">
+        <v>66.784999999999997</v>
+      </c>
+      <c r="E68" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-9.8360655737704958E-2</v>
-      </c>
-      <c r="F68" s="36">
+        <v>-6.9543980462025035E-2</v>
+      </c>
+      <c r="F68" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.2181818181818183</v>
+        <v>1.1494836488812392</v>
       </c>
       <c r="G68">
         <v>6.3520000000000003</v>
@@ -7740,11 +8195,11 @@
       <c r="D69">
         <v>63.26</v>
       </c>
-      <c r="E69" s="36">
+      <c r="E69" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1.679659246162498E-2</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0341670753637404</v>
       </c>
@@ -7761,19 +8216,19 @@
       </c>
       <c r="C70">
         <f>AVERAGE(J53:J54)</f>
-        <v>35.020000000000003</v>
+        <v>33.25</v>
       </c>
       <c r="D70">
         <f>AVERAGE(K53:K54)</f>
-        <v>59.47</v>
-      </c>
-      <c r="E70" s="36">
+        <v>62.2</v>
+      </c>
+      <c r="E70" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
-        <v>-0.25875754048047406</v>
-      </c>
-      <c r="F70" s="36">
+        <v>-0.30330015715034053</v>
+      </c>
+      <c r="F70" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
-        <v>1.6981724728726439</v>
+        <v>1.8706766917293234</v>
       </c>
       <c r="G70">
         <v>6.3520000000000003</v>
@@ -7792,11 +8247,11 @@
       <c r="D71">
         <v>65.400000000000006</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-2.4757129426512151E-2</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="33">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>1.0507712082262213</v>
       </c>
@@ -7817,11 +8272,11 @@
       <c r="D72">
         <v>39.4</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="33">
         <f>(Tableau1[[#This Row],[Back?]]-Tableau1[[#This Row],[Front?]])/(Tableau1[[#This Row],[Back?]]+Tableau1[[#This Row],[Front?]])</f>
         <v>-1</v>
       </c>
-      <c r="F72" s="36" t="e">
+      <c r="F72" s="33" t="e">
         <f>Tableau1[[#This Row],[Front?]]/Tableau1[[#This Row],[Back?]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -7862,6 +8317,310 @@
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>0.36</v>
+      </c>
+      <c r="C81">
+        <v>57.5</v>
+      </c>
+      <c r="D81">
+        <v>55.2</v>
+      </c>
+      <c r="E81">
+        <v>2.0408163265306097E-2</v>
+      </c>
+      <c r="F81">
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="G81">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>0.6</v>
+      </c>
+      <c r="C82">
+        <v>65.5</v>
+      </c>
+      <c r="D82">
+        <v>75.8</v>
+      </c>
+      <c r="E82">
+        <v>-7.2894550601556946E-2</v>
+      </c>
+      <c r="F82">
+        <v>1.1572519083969466</v>
+      </c>
+      <c r="G82">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <v>0.24</v>
+      </c>
+      <c r="C83">
+        <v>55.9</v>
+      </c>
+      <c r="D83">
+        <v>64.984999999999999</v>
+      </c>
+      <c r="E83">
+        <v>-7.515407205195021E-2</v>
+      </c>
+      <c r="F83">
+        <v>1.1625223613595708</v>
+      </c>
+      <c r="G83">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>0.84</v>
+      </c>
+      <c r="C84">
+        <v>66.5</v>
+      </c>
+      <c r="D84">
+        <v>85</v>
+      </c>
+      <c r="E84">
+        <v>-0.12211221122112212</v>
+      </c>
+      <c r="F84">
+        <v>1.2781954887218046</v>
+      </c>
+      <c r="G84">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>0.36</v>
+      </c>
+      <c r="C85">
+        <v>62.95</v>
+      </c>
+      <c r="D85">
+        <v>59.94</v>
+      </c>
+      <c r="E85">
+        <v>2.4493449426316261E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.95218427323272425</v>
+      </c>
+      <c r="G85">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>78</v>
+      </c>
+      <c r="B86">
+        <v>0.6</v>
+      </c>
+      <c r="C86">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D86">
+        <v>76.97999999999999</v>
+      </c>
+      <c r="E86">
+        <v>-3.9357321271855698E-2</v>
+      </c>
+      <c r="F86">
+        <v>1.0819395643007728</v>
+      </c>
+      <c r="G86">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>78</v>
+      </c>
+      <c r="B87">
+        <v>0.84</v>
+      </c>
+      <c r="C87">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="D87">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="E87">
+        <v>-6.3511164594197075E-2</v>
+      </c>
+      <c r="F87">
+        <v>1.1356367789834381</v>
+      </c>
+      <c r="G87">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>76</v>
+      </c>
+      <c r="B88">
+        <v>0.4</v>
+      </c>
+      <c r="C88">
+        <v>66</v>
+      </c>
+      <c r="D88">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E88">
+        <v>-9.8360655737704958E-2</v>
+      </c>
+      <c r="F88">
+        <v>1.2181818181818183</v>
+      </c>
+      <c r="G88">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>79</v>
+      </c>
+      <c r="B89">
+        <v>0.6</v>
+      </c>
+      <c r="C89">
+        <v>61.17</v>
+      </c>
+      <c r="D89">
+        <v>63.26</v>
+      </c>
+      <c r="E89">
+        <v>-1.679659246162498E-2</v>
+      </c>
+      <c r="F89">
+        <v>1.0341670753637404</v>
+      </c>
+      <c r="G89">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>76</v>
+      </c>
+      <c r="B90">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C90">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="D90">
+        <v>59.47</v>
+      </c>
+      <c r="E90">
+        <v>-0.25875754048047406</v>
+      </c>
+      <c r="F90">
+        <v>1.6981724728726439</v>
+      </c>
+      <c r="G90">
+        <v>6.3520000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>79</v>
+      </c>
+      <c r="B91">
+        <v>0.84</v>
+      </c>
+      <c r="C91">
+        <v>62.239999999999995</v>
+      </c>
+      <c r="D91">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E91">
+        <v>-2.4757129426512151E-2</v>
+      </c>
+      <c r="F91">
+        <v>1.0507712082262213</v>
+      </c>
+      <c r="G91">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>79</v>
+      </c>
+      <c r="B92">
+        <v>0.36</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>39.4</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G92">
+        <v>6.26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7881,12 +8640,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
